--- a/Casos de Test.xlsx
+++ b/Casos de Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\proyecto final\gymManageAsys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F307DDE6-59C0-42ED-AB46-F49896D9AEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E965E3F-7868-46C6-8133-8CA583B71B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46E98032-6FEB-4647-97E8-2C4FB4FB57B2}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Probado por</t>
   </si>
   <si>
-    <t>Proyecto final Coder House Python (comision 57810)</t>
-  </si>
-  <si>
     <t>No. Caso de Prueba</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">Un apartado Search para encontra miembros y entrenadores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyecto final Coder House Python (comision 57810) </t>
   </si>
 </sst>
 </file>
@@ -186,18 +186,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +516,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,164 +533,179 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
+      <c r="B7" s="5">
+        <v>45487</v>
+      </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
+      <c r="B8" s="5">
+        <v>45487</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
+      <c r="B9" s="5">
+        <v>45485</v>
+      </c>
       <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
+      <c r="B10" s="5">
+        <v>45486</v>
+      </c>
       <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
+      <c r="B11" s="5">
+        <v>45487</v>
+      </c>
       <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
